--- a/Source/Excel/Test/Loads_01.xlsx
+++ b/Source/Excel/Test/Loads_01.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Aleksei\Havings\Code\demo.local\Source\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Aleksei\Havings\Code\demo.local\Source\Excel\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -44,85 +44,85 @@
     <t>loadCase</t>
   </si>
   <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>direction</t>
+  </si>
+  <si>
+    <t>value1</t>
+  </si>
+  <si>
+    <t>Member Loads</t>
+  </si>
+  <si>
+    <t>Q01</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>FY</t>
+  </si>
+  <si>
+    <t>2.3</t>
+  </si>
+  <si>
+    <t>3.2</t>
+  </si>
+  <si>
+    <t>x2</t>
+  </si>
+  <si>
+    <t>y2</t>
+  </si>
+  <si>
+    <t>z2</t>
+  </si>
+  <si>
+    <t>value2</t>
+  </si>
+  <si>
+    <t>Node Loads</t>
+  </si>
+  <si>
     <t>F01</t>
   </si>
   <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>FX</t>
+  </si>
+  <si>
+    <t>14.3</t>
+  </si>
+  <si>
     <t>F02</t>
   </si>
   <si>
+    <t>FZ</t>
+  </si>
+  <si>
+    <t>-3.6</t>
+  </si>
+  <si>
     <t>F03</t>
   </si>
   <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>direction</t>
-  </si>
-  <si>
-    <t>FX</t>
-  </si>
-  <si>
-    <t>value1</t>
-  </si>
-  <si>
-    <t>FZ</t>
-  </si>
-  <si>
-    <t>14.3</t>
-  </si>
-  <si>
-    <t>-3.6</t>
-  </si>
-  <si>
     <t>MY</t>
   </si>
   <si>
     <t>6.6</t>
   </si>
   <si>
-    <t>Member Loads</t>
-  </si>
-  <si>
-    <t>Node Loads</t>
-  </si>
-  <si>
-    <t>Q01</t>
-  </si>
-  <si>
     <t>Q02</t>
   </si>
   <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>FY</t>
-  </si>
-  <si>
-    <t>2.3</t>
-  </si>
-  <si>
-    <t>3.2</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
     <t>-5</t>
-  </si>
-  <si>
-    <t>x2</t>
-  </si>
-  <si>
-    <t>y2</t>
-  </si>
-  <si>
-    <t>z2</t>
-  </si>
-  <si>
-    <t>value2</t>
-  </si>
-  <si>
-    <t>C</t>
   </si>
 </sst>
 </file>
@@ -217,15 +217,6 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -234,6 +225,15 @@
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -518,7 +518,7 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -544,10 +544,10 @@
         <v>4</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>1</v>
@@ -559,47 +559,47 @@
         <v>3</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="11" t="s">
+    <row r="2" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="12"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="12"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E3" s="1">
         <v>5</v>
@@ -611,7 +611,7 @@
         <v>5</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -619,13 +619,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
@@ -637,7 +637,7 @@
         <v>5</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -645,13 +645,13 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -663,33 +663,33 @@
         <v>5</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="11"/>
-      <c r="I6" s="11"/>
+      <c r="A6" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="8"/>
+      <c r="I6" s="8"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="E7" s="1">
         <v>5</v>
@@ -701,7 +701,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="I7" s="1">
         <v>5</v>
@@ -710,10 +710,10 @@
         <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -721,13 +721,13 @@
         <v>2</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>5</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
@@ -751,7 +751,7 @@
         <v>5</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
